--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value57.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value57.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.014670718262691</v>
+        <v>1.762082934379578</v>
       </c>
       <c r="B1">
-        <v>2.244921853987828</v>
+        <v>3.277971029281616</v>
       </c>
       <c r="C1">
-        <v>2.78456294329364</v>
+        <v>3.718083620071411</v>
       </c>
       <c r="D1">
-        <v>2.365654257529069</v>
+        <v>4.122349739074707</v>
       </c>
       <c r="E1">
-        <v>0.8876768236233</v>
+        <v>1.322736382484436</v>
       </c>
     </row>
   </sheetData>
